--- a/Fase 2/Evidencias de proyecto/Evidencias de documentación/Casos de Prueba.xls.xlsx
+++ b/Fase 2/Evidencias de proyecto/Evidencias de documentación/Casos de Prueba.xls.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1404">
   <si>
     <t>Elaborado por: www.pmoinformatica.com</t>
   </si>
@@ -3027,6 +3027,9 @@
     <t>No aplica</t>
   </si>
   <si>
+    <t>Carga completa en 1.5 segundos</t>
+  </si>
+  <si>
     <t>CPNF-002</t>
   </si>
   <si>
@@ -3048,6 +3051,9 @@
     <t>Ambiente de pruebas seguro</t>
   </si>
   <si>
+    <t>Formulario rechazado correctamente</t>
+  </si>
+  <si>
     <t>CPNF-003</t>
   </si>
   <si>
@@ -3072,6 +3078,9 @@
     <t>Herramientas de simulación de carga concurrente</t>
   </si>
   <si>
+    <t>Sistema estable bajo carga (10 solicitudes simultáneas)</t>
+  </si>
+  <si>
     <t>CPNF-004</t>
   </si>
   <si>
@@ -3096,6 +3105,9 @@
     <t>Navegadores actualizados</t>
   </si>
   <si>
+    <t>Funciona correctamente en todos los navegadores</t>
+  </si>
+  <si>
     <t>CPNF-005</t>
   </si>
   <si>
@@ -3117,6 +3129,10 @@
     <t>Navegadores compatibles con CSS3</t>
   </si>
   <si>
+    <t xml:space="preserve">Diseño claro y legible, buen tamaño de fuente y etiquetas
+</t>
+  </si>
+  <si>
     <t>CPNF-006</t>
   </si>
   <si>
@@ -3138,6 +3154,9 @@
     <t>Herramientas de monitoreo de uso de memoria</t>
   </si>
   <si>
+    <t>Carga completa en 1.8 segundos</t>
+  </si>
+  <si>
     <t>CPNF-007</t>
   </si>
   <si>
@@ -3150,6 +3169,9 @@
     <t>Prueba de Seguridad (CSRF Token) Marcas</t>
   </si>
   <si>
+    <t>Sistema estable bajo carga (5 solicitudes simultáneas)</t>
+  </si>
+  <si>
     <t>CPNF-009</t>
   </si>
   <si>
@@ -3162,24 +3184,37 @@
     <t>Prueba de Compatibilidad (Navegadores) Marcas</t>
   </si>
   <si>
+    <t>Diseño claro y legible, buen tamaño de fuente y etiquetas</t>
+  </si>
+  <si>
     <t>CPNF-011</t>
   </si>
   <si>
     <t>Prueba de Usabilidad (Estilo y UX) Marcas</t>
   </si>
   <si>
+    <t>Uso de memoria estable, sin incrementos significativos</t>
+  </si>
+  <si>
     <t>CPNF-012</t>
   </si>
   <si>
     <t>Prueba de Rendimiento (Uso de memoria) Marcas</t>
   </si>
   <si>
+    <t xml:space="preserve">Carga completa en 1.7 segundos
+</t>
+  </si>
+  <si>
     <t>CPNF-013</t>
   </si>
   <si>
     <t>Prueba de Rendimiento (Tiempo de respuesta) Procedencias</t>
   </si>
   <si>
+    <t>Formulario completamente accesible con lector de pantalla</t>
+  </si>
+  <si>
     <t>CPNF-014</t>
   </si>
   <si>
@@ -3207,6 +3242,9 @@
     <t>Prueba de Seguridad (CSRF Token) Procedencias</t>
   </si>
   <si>
+    <t>Sistema estable bajo carga (2000 solicitudes simultáneas)</t>
+  </si>
+  <si>
     <t>CPNF-016</t>
   </si>
   <si>
@@ -3231,6 +3269,9 @@
     <t>Prueba de Rendimiento (Uso de memoria) Procedencias</t>
   </si>
   <si>
+    <t>Carga completa en 1.6 segundos</t>
+  </si>
+  <si>
     <t>CPNF-020</t>
   </si>
   <si>
@@ -3249,6 +3290,9 @@
     <t>Prueba de Seguridad (CSRF Token) Productos</t>
   </si>
   <si>
+    <t>Sistema estable bajo carga (1500 solicitudes simultáneas)</t>
+  </si>
+  <si>
     <t>CPNF-023</t>
   </si>
   <si>
@@ -3261,60 +3305,90 @@
     <t>Prueba de Compatibilidad (Navegadores) Productos</t>
   </si>
   <si>
+    <t>Interacción sin errores, formulario enviado correctamente</t>
+  </si>
+  <si>
     <t>CPNF-025</t>
   </si>
   <si>
     <t>Prueba de Usabilidad (Estilo y UX) Productos</t>
   </si>
   <si>
+    <t>Formulario cargado en 2.3 segundos</t>
+  </si>
+  <si>
     <t>CPNF-026</t>
   </si>
   <si>
     <t>Prueba de Rendimiento (Uso de memoria) Productos</t>
   </si>
   <si>
+    <t>Acceso correctamente denegado a usuarios no autenticados</t>
+  </si>
+  <si>
     <t>CPNF-027</t>
   </si>
   <si>
     <t>Prueba de Rendimiento (Tiempo de respuesta) Proveedores</t>
   </si>
   <si>
+    <t>Formulario fácil de usar, sin confusión por parte de los usuarios</t>
+  </si>
+  <si>
     <t>CPNF-028</t>
   </si>
   <si>
     <t>Prueba de Usabilidad (Accesibilidad) Proveedores</t>
   </si>
   <si>
+    <t>Sistema manejó 2000 solicitudes simultáneas sin fallos</t>
+  </si>
+  <si>
     <t>CPNF-029</t>
   </si>
   <si>
     <t>Prueba de Seguridad (CSRF Token) Proveedores</t>
   </si>
   <si>
+    <t>Prueba de inyección SQL bloqueada correctamente</t>
+  </si>
+  <si>
     <t>CPNF-030</t>
   </si>
   <si>
     <t>Prueba de Rendimiento (Carga Concurrente) Proveedores</t>
   </si>
   <si>
+    <t>Formulario cargado en 3.5 segundos incluso con red inestable</t>
+  </si>
+  <si>
     <t>CPNF-031</t>
   </si>
   <si>
     <t>Prueba de Compatibilidad (Navegadores) Proveedores</t>
   </si>
   <si>
+    <t>Validación de campos obligatorios correcta</t>
+  </si>
+  <si>
     <t>CPNF-032</t>
   </si>
   <si>
     <t>Prueba de Usabilidad (Estilo y UX) Proveedores</t>
   </si>
   <si>
+    <t>Formulario visible pero con pequeños problemas de estilo en IE 11</t>
+  </si>
+  <si>
     <t>CPNF-033</t>
   </si>
   <si>
     <t>Prueba de Rendimiento (Uso de memoria) Proveedores</t>
   </si>
   <si>
+    <t>Prevención de XSS exitosa, código no ejecutado</t>
+  </si>
+  <si>
     <t>CPNF-034</t>
   </si>
   <si>
@@ -3336,9 +3410,6 @@
     <t>Dispositivos con diversas velocidades de red</t>
   </si>
   <si>
-    <t>La tabla cargó en menos de 3 segundos con más de 10 categorías.</t>
-  </si>
-  <si>
     <t>CPNF-035</t>
   </si>
   <si>
@@ -3526,6 +3597,9 @@
   </si>
   <si>
     <t>Herramientas de simulación de carga de datos</t>
+  </si>
+  <si>
+    <t>La página se mantuvo funcional y respondio en un tiempo aceptable.</t>
   </si>
   <si>
     <t>CPNF-060</t>
@@ -4324,7 +4398,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4407,9 +4481,6 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -4419,6 +4490,12 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -64134,7 +64211,7 @@
     <col customWidth="1" min="9" max="9" width="28.57"/>
     <col customWidth="1" min="10" max="10" width="14.43"/>
     <col customWidth="1" min="11" max="11" width="14.14"/>
-    <col customWidth="1" min="12" max="12" width="42.14"/>
+    <col customWidth="1" min="12" max="12" width="49.71"/>
     <col customWidth="1" min="13" max="13" width="9.57"/>
     <col customWidth="1" min="14" max="14" width="12.43"/>
   </cols>
@@ -64220,20 +64297,26 @@
       <c r="K3" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
+      <c r="L3" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O3" s="28"/>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="27">
         <v>45604.0</v>
@@ -64242,16 +64325,16 @@
         <v>236</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>44</v>
@@ -64259,38 +64342,44 @@
       <c r="K4" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29"/>
+      <c r="L4" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O4" s="28"/>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D5" s="27">
         <v>45604.0</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>44</v>
@@ -64298,38 +64387,44 @@
       <c r="K5" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29"/>
+      <c r="L5" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O5" s="28"/>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D6" s="27">
         <v>45604.0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>44</v>
@@ -64337,20 +64432,26 @@
       <c r="K6" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
+      <c r="L6" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O6" s="28"/>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="D7" s="27">
         <v>45604.0</v>
@@ -64359,16 +64460,16 @@
         <v>992</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>44</v>
@@ -64376,38 +64477,44 @@
       <c r="K7" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
+      <c r="L7" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O7" s="28"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="27">
         <v>45604.0</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>44</v>
@@ -64415,17 +64522,23 @@
       <c r="K8" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="L8" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O8" s="28"/>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>991</v>
@@ -64454,20 +64567,26 @@
       <c r="K9" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="L9" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O9" s="29"/>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D10" s="27">
         <v>45604.0</v>
@@ -64476,16 +64595,16 @@
         <v>236</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>44</v>
@@ -64493,38 +64612,44 @@
       <c r="K10" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+      <c r="L10" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D11" s="27">
         <v>45604.0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>44</v>
@@ -64532,38 +64657,44 @@
       <c r="K11" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="L11" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O11" s="29"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="27">
         <v>45604.0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>44</v>
@@ -64571,20 +64702,26 @@
       <c r="K12" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+      <c r="L12" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="D13" s="27">
         <v>45604.0</v>
@@ -64593,16 +64730,16 @@
         <v>992</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>44</v>
@@ -64610,38 +64747,44 @@
       <c r="K13" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="L13" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O13" s="29"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D14" s="27">
         <v>45604.0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>44</v>
@@ -64649,839 +64792,971 @@
       <c r="K14" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+      <c r="L14" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C15" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>991</v>
       </c>
       <c r="D15" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>992</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>994</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="31" t="s">
         <v>995</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+      <c r="L15" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O15" s="29"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>1051</v>
+        <v>1060</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>1062</v>
       </c>
       <c r="D16" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J16" s="32" t="s">
+      <c r="E16" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="L16" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>1000</v>
+        <v>1067</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>1001</v>
       </c>
       <c r="D17" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>1002</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>1003</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="I17" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
+      <c r="L17" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O17" s="29"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>1007</v>
+        <v>1070</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>1009</v>
       </c>
       <c r="D18" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G18" s="32" t="s">
+      <c r="E18" s="31" t="s">
         <v>1010</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>1012</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="H18" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
+      <c r="L18" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>1015</v>
+        <v>1072</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>1018</v>
       </c>
       <c r="D19" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>1019</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>1020</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="G19" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
+      <c r="L19" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O19" s="29"/>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>1023</v>
+        <v>1074</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>1027</v>
       </c>
       <c r="D20" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="31" t="s">
         <v>992</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J20" s="32" t="s">
+      <c r="F20" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="L20" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>1030</v>
+        <v>1076</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>1035</v>
       </c>
       <c r="D21" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J21" s="32" t="s">
+      <c r="E21" s="31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
+      <c r="L21" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O21" s="29"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C22" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>991</v>
       </c>
       <c r="D22" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>992</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>994</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>995</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="L22" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O22" s="29"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>1051</v>
+        <v>1081</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>1062</v>
       </c>
       <c r="D23" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J23" s="32" t="s">
+      <c r="E23" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
+      <c r="L23" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O23" s="29"/>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>1000</v>
+        <v>1083</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>1001</v>
       </c>
       <c r="D24" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>1002</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="G24" s="31" t="s">
         <v>1003</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="I24" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J24" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
+      <c r="L24" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1007</v>
+        <v>1086</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>1009</v>
       </c>
       <c r="D25" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>1010</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>1012</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="H25" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J25" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
+      <c r="L25" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O25" s="29"/>
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>1015</v>
+        <v>1088</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>1018</v>
       </c>
       <c r="D26" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>1019</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="F26" s="31" t="s">
         <v>1020</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="G26" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J26" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
+      <c r="L26" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O26" s="29"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>1023</v>
+        <v>1091</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>1027</v>
       </c>
       <c r="D27" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>992</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J27" s="32" t="s">
+      <c r="F27" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
+      <c r="L27" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O27" s="29"/>
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>1030</v>
+        <v>1094</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>1035</v>
       </c>
       <c r="D28" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J28" s="32" t="s">
+      <c r="E28" s="31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J28" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
+      <c r="L28" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C29" s="32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>991</v>
       </c>
       <c r="D29" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>992</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="31" t="s">
         <v>994</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>995</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
+      <c r="L29" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O29" s="29"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>1051</v>
+        <v>1100</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>1062</v>
       </c>
       <c r="D30" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J30" s="32" t="s">
+      <c r="E30" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
+      <c r="L30" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O30" s="29"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>1000</v>
+        <v>1103</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>1001</v>
       </c>
       <c r="D31" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>1002</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>1003</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="I31" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
+      <c r="L31" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O31" s="29"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>1007</v>
+        <v>1106</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>1009</v>
       </c>
       <c r="D32" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>1010</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="G32" s="31" t="s">
         <v>1012</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="H32" s="31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J32" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
+      <c r="L32" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O32" s="29"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>1015</v>
+        <v>1109</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>1018</v>
       </c>
       <c r="D33" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>1019</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>1020</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="G33" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J33" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
+      <c r="L33" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O33" s="29"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>1023</v>
+        <v>1112</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>1027</v>
       </c>
       <c r="D34" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>992</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J34" s="32" t="s">
+      <c r="F34" s="31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J34" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
+      <c r="L34" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O34" s="29"/>
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>1030</v>
+        <v>1115</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>1035</v>
       </c>
       <c r="D35" s="27">
         <v>45604.0</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J35" s="32" t="s">
+      <c r="E35" s="31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
+      <c r="L35" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" s="27">
+        <v>45604.0</v>
+      </c>
+      <c r="O35" s="29"/>
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>1095</v>
+        <v>1119</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1096</v>
+        <v>1120</v>
       </c>
       <c r="D36" s="27">
         <v>45604.0</v>
@@ -65490,16 +65765,16 @@
         <v>992</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>1097</v>
+        <v>1121</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>1098</v>
+        <v>1122</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>1099</v>
+        <v>1123</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>44</v>
@@ -65507,26 +65782,24 @@
       <c r="K36" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L36" s="15" t="s">
-        <v>1101</v>
-      </c>
+      <c r="L36" s="32"/>
       <c r="M36" s="15" t="s">
         <v>47</v>
       </c>
       <c r="N36" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O36" s="30"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>1102</v>
+        <v>1125</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="D37" s="27">
         <v>45604.0</v>
@@ -65535,16 +65808,16 @@
         <v>236</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>44</v>
@@ -65553,7 +65826,7 @@
         <v>997</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="M37" s="15" t="s">
         <v>47</v>
@@ -65561,35 +65834,35 @@
       <c r="N37" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O37" s="30"/>
+      <c r="O37" s="29"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>1108</v>
+        <v>1131</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="D38" s="27">
         <v>45604.0</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>44</v>
@@ -65598,7 +65871,7 @@
         <v>997</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>47</v>
@@ -65606,17 +65879,17 @@
       <c r="N38" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O38" s="30"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>1113</v>
+        <v>1136</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="D39" s="27">
         <v>45604.0</v>
@@ -65625,16 +65898,16 @@
         <v>992</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>44</v>
@@ -65643,7 +65916,7 @@
         <v>997</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="M39" s="15" t="s">
         <v>47</v>
@@ -65651,17 +65924,17 @@
       <c r="N39" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O39" s="30"/>
+      <c r="O39" s="29"/>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>1118</v>
+        <v>1141</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>1095</v>
+        <v>1119</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1119</v>
+        <v>1142</v>
       </c>
       <c r="D40" s="27">
         <v>45604.0</v>
@@ -65670,16 +65943,16 @@
         <v>992</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>1097</v>
+        <v>1121</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>1099</v>
+        <v>1123</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>44</v>
@@ -65688,7 +65961,7 @@
         <v>997</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>1121</v>
+        <v>1144</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>47</v>
@@ -65696,17 +65969,17 @@
       <c r="N40" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O40" s="30"/>
+      <c r="O40" s="29"/>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>1122</v>
+        <v>1145</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="D41" s="27">
         <v>45604.0</v>
@@ -65715,16 +65988,16 @@
         <v>236</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>44</v>
@@ -65733,7 +66006,7 @@
         <v>997</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="M41" s="15" t="s">
         <v>47</v>
@@ -65741,35 +66014,35 @@
       <c r="N41" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O41" s="30"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>1123</v>
+        <v>1146</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="D42" s="27">
         <v>45604.0</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>44</v>
@@ -65778,7 +66051,7 @@
         <v>997</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="M42" s="15" t="s">
         <v>47</v>
@@ -65786,17 +66059,17 @@
       <c r="N42" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O42" s="30"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>1124</v>
+        <v>1147</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="D43" s="27">
         <v>45604.0</v>
@@ -65805,16 +66078,16 @@
         <v>992</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>44</v>
@@ -65823,7 +66096,7 @@
         <v>997</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="M43" s="15" t="s">
         <v>47</v>
@@ -65831,17 +66104,17 @@
       <c r="N43" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O43" s="30"/>
+      <c r="O43" s="29"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>1125</v>
+        <v>1148</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>1095</v>
+        <v>1119</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>1126</v>
+        <v>1149</v>
       </c>
       <c r="D44" s="27">
         <v>45604.0</v>
@@ -65850,16 +66123,16 @@
         <v>992</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>1097</v>
+        <v>1121</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>1099</v>
+        <v>1123</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>44</v>
@@ -65868,7 +66141,7 @@
         <v>997</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>1128</v>
+        <v>1151</v>
       </c>
       <c r="M44" s="15" t="s">
         <v>47</v>
@@ -65876,17 +66149,17 @@
       <c r="N44" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O44" s="30"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>1129</v>
+        <v>1152</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="D45" s="27">
         <v>45604.0</v>
@@ -65895,16 +66168,16 @@
         <v>236</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>44</v>
@@ -65913,7 +66186,7 @@
         <v>997</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="M45" s="15" t="s">
         <v>47</v>
@@ -65921,35 +66194,35 @@
       <c r="N45" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O45" s="30"/>
+      <c r="O45" s="29"/>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>1130</v>
+        <v>1153</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="D46" s="27">
         <v>45604.0</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>44</v>
@@ -65958,7 +66231,7 @@
         <v>997</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="M46" s="15" t="s">
         <v>47</v>
@@ -65966,17 +66239,17 @@
       <c r="N46" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O46" s="30"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="D47" s="27">
         <v>45604.0</v>
@@ -65985,16 +66258,16 @@
         <v>992</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>44</v>
@@ -66003,7 +66276,7 @@
         <v>997</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="M47" s="15" t="s">
         <v>47</v>
@@ -66011,17 +66284,17 @@
       <c r="N47" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O47" s="30"/>
+      <c r="O47" s="29"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>1132</v>
+        <v>1155</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>1095</v>
+        <v>1119</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>1133</v>
+        <v>1156</v>
       </c>
       <c r="D48" s="27">
         <v>45604.0</v>
@@ -66030,16 +66303,16 @@
         <v>992</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>1097</v>
+        <v>1121</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>1099</v>
+        <v>1123</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>44</v>
@@ -66048,7 +66321,7 @@
         <v>997</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>1135</v>
+        <v>1158</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>47</v>
@@ -66056,17 +66329,17 @@
       <c r="N48" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O48" s="30"/>
+      <c r="O48" s="29"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>1136</v>
+        <v>1159</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="D49" s="27">
         <v>45604.0</v>
@@ -66075,16 +66348,16 @@
         <v>236</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>44</v>
@@ -66093,7 +66366,7 @@
         <v>997</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="M49" s="15" t="s">
         <v>47</v>
@@ -66101,35 +66374,35 @@
       <c r="N49" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O49" s="30"/>
+      <c r="O49" s="29"/>
     </row>
     <row r="50">
       <c r="A50" s="15" t="s">
-        <v>1137</v>
+        <v>1160</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="D50" s="27">
         <v>45604.0</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>44</v>
@@ -66138,7 +66411,7 @@
         <v>997</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="M50" s="15" t="s">
         <v>47</v>
@@ -66146,17 +66419,17 @@
       <c r="N50" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O50" s="30"/>
+      <c r="O50" s="29"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="D51" s="27">
         <v>45604.0</v>
@@ -66165,16 +66438,16 @@
         <v>992</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>44</v>
@@ -66183,7 +66456,7 @@
         <v>997</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="M51" s="15" t="s">
         <v>47</v>
@@ -66191,17 +66464,17 @@
       <c r="N51" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O51" s="30"/>
+      <c r="O51" s="29"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>1139</v>
+        <v>1162</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>1095</v>
+        <v>1119</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1140</v>
+        <v>1163</v>
       </c>
       <c r="D52" s="27">
         <v>45604.0</v>
@@ -66210,16 +66483,16 @@
         <v>992</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>1097</v>
+        <v>1121</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>1099</v>
+        <v>1123</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>44</v>
@@ -66228,7 +66501,7 @@
         <v>997</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>1142</v>
+        <v>1165</v>
       </c>
       <c r="M52" s="15" t="s">
         <v>47</v>
@@ -66236,17 +66509,17 @@
       <c r="N52" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O52" s="30"/>
+      <c r="O52" s="29"/>
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>1143</v>
+        <v>1166</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="D53" s="27">
         <v>45604.0</v>
@@ -66255,16 +66528,16 @@
         <v>236</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>44</v>
@@ -66273,7 +66546,7 @@
         <v>997</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="M53" s="15" t="s">
         <v>47</v>
@@ -66281,35 +66554,35 @@
       <c r="N53" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O53" s="30"/>
+      <c r="O53" s="29"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>1144</v>
+        <v>1167</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="D54" s="27">
         <v>45604.0</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>44</v>
@@ -66318,7 +66591,7 @@
         <v>997</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="M54" s="15" t="s">
         <v>47</v>
@@ -66326,17 +66599,17 @@
       <c r="N54" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O54" s="30"/>
+      <c r="O54" s="29"/>
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>1145</v>
+        <v>1168</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="D55" s="27">
         <v>45604.0</v>
@@ -66345,16 +66618,16 @@
         <v>992</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>44</v>
@@ -66363,7 +66636,7 @@
         <v>997</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="M55" s="15" t="s">
         <v>47</v>
@@ -66371,17 +66644,17 @@
       <c r="N55" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O55" s="30"/>
+      <c r="O55" s="29"/>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>1146</v>
+        <v>1169</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="D56" s="27">
         <v>45604.0</v>
@@ -66390,13 +66663,13 @@
         <v>992</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>1149</v>
+        <v>1172</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>1150</v>
+        <v>1173</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>1151</v>
+        <v>1174</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>996</v>
@@ -66408,7 +66681,7 @@
         <v>997</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>1152</v>
+        <v>1175</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>47</v>
@@ -66416,17 +66689,17 @@
       <c r="N56" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O56" s="29"/>
+      <c r="O56" s="28"/>
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>1153</v>
+        <v>1176</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>1154</v>
+        <v>1177</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1155</v>
+        <v>1178</v>
       </c>
       <c r="D57" s="27">
         <v>45604.0</v>
@@ -66435,16 +66708,16 @@
         <v>236</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>1156</v>
+        <v>1179</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>1157</v>
+        <v>1180</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>44</v>
@@ -66453,7 +66726,7 @@
         <v>997</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="M57" s="15" t="s">
         <v>47</v>
@@ -66461,35 +66734,35 @@
       <c r="N57" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O57" s="29"/>
+      <c r="O57" s="28"/>
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>1158</v>
+        <v>1181</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>1159</v>
+        <v>1182</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>1160</v>
+        <v>1183</v>
       </c>
       <c r="D58" s="27">
         <v>45604.0</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>1161</v>
+        <v>1184</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>1162</v>
+        <v>1185</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>1163</v>
+        <v>1186</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>1164</v>
+        <v>1187</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>44</v>
@@ -66497,38 +66770,40 @@
       <c r="K58" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="L58" s="15"/>
+      <c r="L58" s="15" t="s">
+        <v>1188</v>
+      </c>
       <c r="M58" s="15"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="29"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="28"/>
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>1165</v>
+        <v>1189</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>1166</v>
+        <v>1190</v>
       </c>
       <c r="D59" s="27">
         <v>45604.0</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>1167</v>
+        <v>1191</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>1168</v>
+        <v>1192</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>44</v>
@@ -66537,7 +66812,7 @@
         <v>997</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>1169</v>
+        <v>1193</v>
       </c>
       <c r="M59" s="15" t="s">
         <v>47</v>
@@ -66545,17 +66820,17 @@
       <c r="N59" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O59" s="29"/>
+      <c r="O59" s="28"/>
     </row>
     <row r="60">
       <c r="A60" s="15" t="s">
-        <v>1170</v>
+        <v>1194</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>1171</v>
+        <v>1195</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1172</v>
+        <v>1196</v>
       </c>
       <c r="D60" s="27">
         <v>45604.0</v>
@@ -66564,16 +66839,16 @@
         <v>992</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>1173</v>
+        <v>1197</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>1174</v>
+        <v>1198</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J60" s="15" t="s">
         <v>44</v>
@@ -66582,7 +66857,7 @@
         <v>997</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>1175</v>
+        <v>1199</v>
       </c>
       <c r="M60" s="15" t="s">
         <v>47</v>
@@ -66590,17 +66865,17 @@
       <c r="N60" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O60" s="29"/>
+      <c r="O60" s="28"/>
     </row>
     <row r="61">
       <c r="A61" s="15" t="s">
-        <v>1176</v>
+        <v>1200</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>1177</v>
+        <v>1201</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="D61" s="27">
         <v>45604.0</v>
@@ -66609,16 +66884,16 @@
         <v>992</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>1179</v>
+        <v>1203</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>1180</v>
+        <v>1204</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>1181</v>
+        <v>1205</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J61" s="15" t="s">
         <v>44</v>
@@ -66627,7 +66902,7 @@
         <v>997</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>1182</v>
+        <v>1206</v>
       </c>
       <c r="M61" s="15" t="s">
         <v>47</v>
@@ -66635,17 +66910,17 @@
       <c r="N61" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O61" s="30"/>
+      <c r="O61" s="29"/>
     </row>
     <row r="62">
       <c r="A62" s="15" t="s">
-        <v>1183</v>
+        <v>1207</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>1184</v>
+        <v>1208</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1185</v>
+        <v>1209</v>
       </c>
       <c r="D62" s="27">
         <v>45604.0</v>
@@ -66654,16 +66929,16 @@
         <v>992</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>1186</v>
+        <v>1210</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>1187</v>
+        <v>1211</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>1188</v>
+        <v>1212</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>1189</v>
+        <v>1213</v>
       </c>
       <c r="J62" s="15" t="s">
         <v>44</v>
@@ -66672,7 +66947,7 @@
         <v>997</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>1190</v>
+        <v>1214</v>
       </c>
       <c r="M62" s="15" t="s">
         <v>47</v>
@@ -66680,17 +66955,17 @@
       <c r="N62" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O62" s="30"/>
+      <c r="O62" s="29"/>
     </row>
     <row r="63">
       <c r="A63" s="15" t="s">
-        <v>1191</v>
+        <v>1215</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>1192</v>
+        <v>1216</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1193</v>
+        <v>1217</v>
       </c>
       <c r="D63" s="27">
         <v>45604.0</v>
@@ -66699,16 +66974,16 @@
         <v>236</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>1194</v>
+        <v>1218</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>1195</v>
+        <v>1219</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>44</v>
@@ -66717,7 +66992,7 @@
         <v>997</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>1196</v>
+        <v>1220</v>
       </c>
       <c r="M63" s="15" t="s">
         <v>47</v>
@@ -66725,17 +67000,17 @@
       <c r="N63" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O63" s="30"/>
+      <c r="O63" s="29"/>
     </row>
     <row r="64">
       <c r="A64" s="15" t="s">
-        <v>1197</v>
+        <v>1221</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>1198</v>
+        <v>1222</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1199</v>
+        <v>1223</v>
       </c>
       <c r="D64" s="27">
         <v>45604.0</v>
@@ -66744,16 +67019,16 @@
         <v>236</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>1200</v>
+        <v>1224</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1201</v>
+        <v>1225</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>1202</v>
+        <v>1226</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J64" s="15" t="s">
         <v>44</v>
@@ -66762,7 +67037,7 @@
         <v>997</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>1203</v>
+        <v>1227</v>
       </c>
       <c r="M64" s="15" t="s">
         <v>47</v>
@@ -66770,35 +67045,35 @@
       <c r="N64" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O64" s="30"/>
+      <c r="O64" s="29"/>
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
-        <v>1204</v>
+        <v>1228</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>1205</v>
+        <v>1229</v>
       </c>
       <c r="D65" s="27">
         <v>45604.0</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>1206</v>
+        <v>1230</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>1168</v>
+        <v>1192</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J65" s="15" t="s">
         <v>44</v>
@@ -66807,7 +67082,7 @@
         <v>997</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>1169</v>
+        <v>1193</v>
       </c>
       <c r="M65" s="15" t="s">
         <v>47</v>
@@ -66815,35 +67090,35 @@
       <c r="N65" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O65" s="30"/>
+      <c r="O65" s="29"/>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>1207</v>
+        <v>1231</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>1208</v>
+        <v>1232</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1209</v>
+        <v>1233</v>
       </c>
       <c r="D66" s="27">
         <v>45604.0</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>1211</v>
+        <v>1235</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>1212</v>
+        <v>1236</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>1213</v>
+        <v>1237</v>
       </c>
       <c r="J66" s="15" t="s">
         <v>44</v>
@@ -66852,7 +67127,7 @@
         <v>997</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>1214</v>
+        <v>1238</v>
       </c>
       <c r="M66" s="15" t="s">
         <v>47</v>
@@ -66860,17 +67135,17 @@
       <c r="N66" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O66" s="30"/>
+      <c r="O66" s="29"/>
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>1215</v>
+        <v>1239</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>1216</v>
+        <v>1240</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1217</v>
+        <v>1241</v>
       </c>
       <c r="D67" s="27">
         <v>45604.0</v>
@@ -66879,16 +67154,16 @@
         <v>992</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1218</v>
+        <v>1242</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>1219</v>
+        <v>1243</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>44</v>
@@ -66897,7 +67172,7 @@
         <v>997</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>1220</v>
+        <v>1244</v>
       </c>
       <c r="M67" s="15" t="s">
         <v>47</v>
@@ -66905,17 +67180,17 @@
       <c r="N67" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O67" s="30"/>
+      <c r="O67" s="29"/>
     </row>
     <row r="68">
       <c r="A68" s="15" t="s">
-        <v>1221</v>
+        <v>1245</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>1222</v>
+        <v>1246</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>1223</v>
+        <v>1247</v>
       </c>
       <c r="D68" s="27">
         <v>45604.0</v>
@@ -66924,16 +67199,16 @@
         <v>992</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>1224</v>
+        <v>1248</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>1225</v>
+        <v>1249</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>1227</v>
+        <v>1251</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>44</v>
@@ -66942,7 +67217,7 @@
         <v>997</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>1228</v>
+        <v>1252</v>
       </c>
       <c r="M68" s="15" t="s">
         <v>47</v>
@@ -66950,35 +67225,35 @@
       <c r="N68" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O68" s="29"/>
+      <c r="O68" s="28"/>
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>1229</v>
+        <v>1253</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>1230</v>
+        <v>1254</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>1231</v>
+        <v>1255</v>
       </c>
       <c r="D69" s="27">
         <v>45604.0</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>1232</v>
+        <v>1256</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>1233</v>
+        <v>1257</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>1234</v>
+        <v>1258</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="J69" s="15" t="s">
         <v>44</v>
@@ -66987,7 +67262,7 @@
         <v>997</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
       <c r="M69" s="15" t="s">
         <v>47</v>
@@ -66995,17 +67270,17 @@
       <c r="N69" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O69" s="29"/>
+      <c r="O69" s="28"/>
     </row>
     <row r="70">
       <c r="A70" s="15" t="s">
-        <v>1236</v>
+        <v>1260</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>1237</v>
+        <v>1261</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>1238</v>
+        <v>1262</v>
       </c>
       <c r="D70" s="27">
         <v>45604.0</v>
@@ -67014,16 +67289,16 @@
         <v>236</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>1156</v>
+        <v>1179</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>1240</v>
+        <v>1264</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>44</v>
@@ -67032,7 +67307,7 @@
         <v>997</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>1241</v>
+        <v>1265</v>
       </c>
       <c r="M70" s="15" t="s">
         <v>47</v>
@@ -67040,17 +67315,17 @@
       <c r="N70" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O70" s="29"/>
+      <c r="O70" s="28"/>
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>1242</v>
+        <v>1266</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>1243</v>
+        <v>1267</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>1244</v>
+        <v>1268</v>
       </c>
       <c r="D71" s="27">
         <v>45604.0</v>
@@ -67059,16 +67334,16 @@
         <v>236</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>1245</v>
+        <v>1269</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>1246</v>
+        <v>1270</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>1247</v>
+        <v>1271</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J71" s="15" t="s">
         <v>44</v>
@@ -67077,7 +67352,7 @@
         <v>997</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>1248</v>
+        <v>1272</v>
       </c>
       <c r="M71" s="15" t="s">
         <v>47</v>
@@ -67085,17 +67360,17 @@
       <c r="N71" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O71" s="29"/>
+      <c r="O71" s="28"/>
     </row>
     <row r="72">
       <c r="A72" s="15" t="s">
-        <v>1249</v>
+        <v>1273</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>1184</v>
+        <v>1208</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1250</v>
+        <v>1274</v>
       </c>
       <c r="D72" s="27">
         <v>45604.0</v>
@@ -67104,16 +67379,16 @@
         <v>992</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1186</v>
+        <v>1210</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>1251</v>
+        <v>1275</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>1252</v>
+        <v>1276</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>1189</v>
+        <v>1213</v>
       </c>
       <c r="J72" s="15" t="s">
         <v>44</v>
@@ -67122,7 +67397,7 @@
         <v>997</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>1253</v>
+        <v>1277</v>
       </c>
       <c r="M72" s="15" t="s">
         <v>47</v>
@@ -67130,35 +67405,35 @@
       <c r="N72" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O72" s="29"/>
+      <c r="O72" s="28"/>
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>1254</v>
+        <v>1278</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1255</v>
+        <v>1279</v>
       </c>
       <c r="D73" s="27">
         <v>45604.0</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>1206</v>
+        <v>1230</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>1256</v>
+        <v>1280</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>44</v>
@@ -67167,7 +67442,7 @@
         <v>997</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>1257</v>
+        <v>1281</v>
       </c>
       <c r="M73" s="15" t="s">
         <v>47</v>
@@ -67175,35 +67450,35 @@
       <c r="N73" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O73" s="29"/>
+      <c r="O73" s="28"/>
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>1258</v>
+        <v>1282</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>1259</v>
+        <v>1283</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1260</v>
+        <v>1284</v>
       </c>
       <c r="D74" s="27">
         <v>45604.0</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>1262</v>
+        <v>1286</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>1263</v>
+        <v>1287</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>1264</v>
+        <v>1288</v>
       </c>
       <c r="J74" s="15" t="s">
         <v>44</v>
@@ -67212,7 +67487,7 @@
         <v>997</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>1265</v>
+        <v>1289</v>
       </c>
       <c r="M74" s="15" t="s">
         <v>47</v>
@@ -67220,17 +67495,17 @@
       <c r="N74" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O74" s="29"/>
+      <c r="O74" s="28"/>
     </row>
     <row r="75">
       <c r="A75" s="15" t="s">
-        <v>1266</v>
+        <v>1290</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>1267</v>
+        <v>1291</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>1268</v>
+        <v>1292</v>
       </c>
       <c r="D75" s="27">
         <v>45604.0</v>
@@ -67239,16 +67514,16 @@
         <v>992</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>1269</v>
+        <v>1293</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>1270</v>
+        <v>1294</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="J75" s="15" t="s">
         <v>44</v>
@@ -67257,7 +67532,7 @@
         <v>997</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>1272</v>
+        <v>1296</v>
       </c>
       <c r="M75" s="15" t="s">
         <v>47</v>
@@ -67265,17 +67540,17 @@
       <c r="N75" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O75" s="29"/>
+      <c r="O75" s="28"/>
     </row>
     <row r="76">
       <c r="A76" s="15" t="s">
-        <v>1273</v>
+        <v>1297</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>1274</v>
+        <v>1298</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>1275</v>
+        <v>1299</v>
       </c>
       <c r="D76" s="27">
         <v>45604.0</v>
@@ -67284,16 +67559,16 @@
         <v>992</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>1224</v>
+        <v>1248</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>1276</v>
+        <v>1300</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>1181</v>
+        <v>1205</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>44</v>
@@ -67302,7 +67577,7 @@
         <v>997</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>1277</v>
+        <v>1301</v>
       </c>
       <c r="M76" s="15" t="s">
         <v>47</v>
@@ -67310,35 +67585,35 @@
       <c r="N76" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O76" s="30"/>
+      <c r="O76" s="29"/>
     </row>
     <row r="77">
       <c r="A77" s="15" t="s">
-        <v>1278</v>
+        <v>1302</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1280</v>
+        <v>1304</v>
       </c>
       <c r="D77" s="27">
         <v>45604.0</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>1281</v>
+        <v>1305</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>1282</v>
+        <v>1306</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>1284</v>
+        <v>1308</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>1285</v>
+        <v>1309</v>
       </c>
       <c r="J77" s="15" t="s">
         <v>44</v>
@@ -67347,7 +67622,7 @@
         <v>997</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
       <c r="M77" s="15" t="s">
         <v>47</v>
@@ -67355,17 +67630,17 @@
       <c r="N77" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O77" s="30"/>
+      <c r="O77" s="29"/>
     </row>
     <row r="78">
       <c r="A78" s="15" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>1237</v>
+        <v>1261</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="D78" s="27">
         <v>45604.0</v>
@@ -67374,16 +67649,16 @@
         <v>236</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>1290</v>
+        <v>1314</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J78" s="15" t="s">
         <v>44</v>
@@ -67392,7 +67667,7 @@
         <v>997</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>1196</v>
+        <v>1220</v>
       </c>
       <c r="M78" s="15" t="s">
         <v>47</v>
@@ -67400,35 +67675,35 @@
       <c r="N78" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O78" s="30"/>
+      <c r="O78" s="29"/>
     </row>
     <row r="79">
       <c r="A79" s="15" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>1292</v>
+        <v>1316</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
       <c r="D79" s="27">
         <v>45604.0</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>1200</v>
+        <v>1224</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J79" s="15" t="s">
         <v>44</v>
@@ -67437,7 +67712,7 @@
         <v>997</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
       <c r="M79" s="15" t="s">
         <v>47</v>
@@ -67445,35 +67720,35 @@
       <c r="N79" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O79" s="30"/>
+      <c r="O79" s="29"/>
     </row>
     <row r="80">
       <c r="A80" s="15" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1299</v>
+        <v>1323</v>
       </c>
       <c r="D80" s="27">
         <v>45604.0</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>1300</v>
+        <v>1324</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>1168</v>
+        <v>1192</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>44</v>
@@ -67482,7 +67757,7 @@
         <v>997</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>1169</v>
+        <v>1193</v>
       </c>
       <c r="M80" s="15" t="s">
         <v>47</v>
@@ -67490,35 +67765,35 @@
       <c r="N80" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O80" s="30"/>
+      <c r="O80" s="29"/>
     </row>
     <row r="81">
       <c r="A81" s="15" t="s">
-        <v>1301</v>
+        <v>1325</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>1303</v>
+        <v>1327</v>
       </c>
       <c r="D81" s="27">
         <v>45604.0</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>1304</v>
+        <v>1328</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>1305</v>
+        <v>1329</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>1264</v>
+        <v>1288</v>
       </c>
       <c r="J81" s="15" t="s">
         <v>44</v>
@@ -67527,7 +67802,7 @@
         <v>997</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>1265</v>
+        <v>1289</v>
       </c>
       <c r="M81" s="15" t="s">
         <v>47</v>
@@ -67535,17 +67810,17 @@
       <c r="N81" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O81" s="30"/>
+      <c r="O81" s="29"/>
     </row>
     <row r="82">
       <c r="A82" s="15" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>1307</v>
+        <v>1331</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>1308</v>
+        <v>1332</v>
       </c>
       <c r="D82" s="27">
         <v>45604.0</v>
@@ -67554,16 +67829,16 @@
         <v>992</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>1269</v>
+        <v>1293</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>1309</v>
+        <v>1333</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="J82" s="15" t="s">
         <v>44</v>
@@ -67572,7 +67847,7 @@
         <v>997</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>1310</v>
+        <v>1334</v>
       </c>
       <c r="M82" s="15" t="s">
         <v>47</v>
@@ -67580,35 +67855,35 @@
       <c r="N82" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O82" s="30"/>
+      <c r="O82" s="29"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
-        <v>1311</v>
+        <v>1335</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>1312</v>
+        <v>1336</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1313</v>
+        <v>1337</v>
       </c>
       <c r="D83" s="27">
         <v>45604.0</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>1314</v>
+        <v>1338</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>1200</v>
+        <v>1224</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>1315</v>
+        <v>1339</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>1317</v>
+        <v>1341</v>
       </c>
       <c r="J83" s="15" t="s">
         <v>44</v>
@@ -67617,7 +67892,7 @@
         <v>997</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>1318</v>
+        <v>1342</v>
       </c>
       <c r="M83" s="15" t="s">
         <v>47</v>
@@ -67625,17 +67900,17 @@
       <c r="N83" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O83" s="30"/>
+      <c r="O83" s="29"/>
     </row>
     <row r="84">
       <c r="A84" s="15" t="s">
-        <v>1319</v>
+        <v>1343</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>1320</v>
+        <v>1344</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>1321</v>
+        <v>1345</v>
       </c>
       <c r="D84" s="27">
         <v>45604.0</v>
@@ -67644,16 +67919,16 @@
         <v>992</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>1224</v>
+        <v>1248</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>1322</v>
+        <v>1346</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>1181</v>
+        <v>1205</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>1100</v>
+        <v>1124</v>
       </c>
       <c r="J84" s="15" t="s">
         <v>44</v>
@@ -67662,7 +67937,7 @@
         <v>997</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>1323</v>
+        <v>1347</v>
       </c>
       <c r="M84" s="15" t="s">
         <v>47</v>
@@ -67670,17 +67945,17 @@
       <c r="N84" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O84" s="30"/>
+      <c r="O84" s="29"/>
     </row>
     <row r="85">
       <c r="A85" s="15" t="s">
-        <v>1324</v>
+        <v>1348</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>1325</v>
+        <v>1349</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1326</v>
+        <v>1350</v>
       </c>
       <c r="D85" s="27">
         <v>45604.0</v>
@@ -67689,16 +67964,16 @@
         <v>992</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>1327</v>
+        <v>1351</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>1328</v>
+        <v>1352</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>1329</v>
+        <v>1353</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>1330</v>
+        <v>1354</v>
       </c>
       <c r="J85" s="15" t="s">
         <v>44</v>
@@ -67707,7 +67982,7 @@
         <v>997</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>1331</v>
+        <v>1355</v>
       </c>
       <c r="M85" s="15" t="s">
         <v>47</v>
@@ -67715,17 +67990,17 @@
       <c r="N85" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O85" s="30"/>
+      <c r="O85" s="29"/>
     </row>
     <row r="86">
       <c r="A86" s="15" t="s">
-        <v>1332</v>
+        <v>1356</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>1333</v>
+        <v>1357</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1334</v>
+        <v>1358</v>
       </c>
       <c r="D86" s="27">
         <v>45604.0</v>
@@ -67734,16 +68009,16 @@
         <v>236</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>1335</v>
+        <v>1359</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J86" s="15" t="s">
         <v>44</v>
@@ -67752,7 +68027,7 @@
         <v>997</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>1196</v>
+        <v>1220</v>
       </c>
       <c r="M86" s="15" t="s">
         <v>47</v>
@@ -67760,35 +68035,35 @@
       <c r="N86" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O86" s="30"/>
+      <c r="O86" s="29"/>
     </row>
     <row r="87">
       <c r="A87" s="15" t="s">
-        <v>1337</v>
+        <v>1361</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>1338</v>
+        <v>1362</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1339</v>
+        <v>1363</v>
       </c>
       <c r="D87" s="27">
         <v>45604.0</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>1340</v>
+        <v>1364</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>44</v>
@@ -67797,7 +68072,7 @@
         <v>997</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="M87" s="15" t="s">
         <v>47</v>
@@ -67805,35 +68080,35 @@
       <c r="N87" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O87" s="30"/>
+      <c r="O87" s="29"/>
     </row>
     <row r="88">
       <c r="A88" s="15" t="s">
-        <v>1344</v>
+        <v>1368</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>1345</v>
+        <v>1369</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>1346</v>
+        <v>1370</v>
       </c>
       <c r="D88" s="27">
         <v>45604.0</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>1200</v>
+        <v>1224</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>1348</v>
+        <v>1372</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>44</v>
@@ -67842,7 +68117,7 @@
         <v>997</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>1349</v>
+        <v>1373</v>
       </c>
       <c r="M88" s="15" t="s">
         <v>47</v>
@@ -67850,35 +68125,35 @@
       <c r="N88" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O88" s="30"/>
+      <c r="O88" s="29"/>
     </row>
     <row r="89">
       <c r="A89" s="15" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>1351</v>
+        <v>1375</v>
       </c>
       <c r="D89" s="27">
         <v>45604.0</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>1352</v>
+        <v>1376</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>1168</v>
+        <v>1192</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>44</v>
@@ -67887,7 +68162,7 @@
         <v>997</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>1353</v>
+        <v>1377</v>
       </c>
       <c r="M89" s="15" t="s">
         <v>47</v>
@@ -67895,17 +68170,17 @@
       <c r="N89" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O89" s="30"/>
+      <c r="O89" s="29"/>
     </row>
     <row r="90">
       <c r="A90" s="15" t="s">
-        <v>1183</v>
+        <v>1207</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>1184</v>
+        <v>1208</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>1354</v>
+        <v>1378</v>
       </c>
       <c r="D90" s="27">
         <v>45604.0</v>
@@ -67914,16 +68189,16 @@
         <v>992</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>1186</v>
+        <v>1210</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>1187</v>
+        <v>1211</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>1188</v>
+        <v>1212</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>1189</v>
+        <v>1213</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>44</v>
@@ -67932,7 +68207,7 @@
         <v>997</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>1190</v>
+        <v>1214</v>
       </c>
       <c r="M90" s="15" t="s">
         <v>47</v>
@@ -67940,35 +68215,35 @@
       <c r="N90" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O90" s="30"/>
+      <c r="O90" s="29"/>
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
-        <v>1355</v>
+        <v>1379</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>1356</v>
+        <v>1380</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
       <c r="D91" s="27">
         <v>45604.0</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>1358</v>
+        <v>1382</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>1359</v>
+        <v>1383</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>1264</v>
+        <v>1288</v>
       </c>
       <c r="J91" s="15" t="s">
         <v>44</v>
@@ -67977,7 +68252,7 @@
         <v>997</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>1360</v>
+        <v>1384</v>
       </c>
       <c r="M91" s="15" t="s">
         <v>47</v>
@@ -67985,35 +68260,35 @@
       <c r="N91" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O91" s="30"/>
+      <c r="O91" s="29"/>
     </row>
     <row r="92">
       <c r="A92" s="15" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>1362</v>
+        <v>1386</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>1363</v>
+        <v>1387</v>
       </c>
       <c r="D92" s="27">
         <v>45604.0</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>1364</v>
+        <v>1388</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>1365</v>
+        <v>1389</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>1366</v>
+        <v>1390</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="J92" s="15" t="s">
         <v>44</v>
@@ -68022,7 +68297,7 @@
         <v>997</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>1367</v>
+        <v>1391</v>
       </c>
       <c r="M92" s="15" t="s">
         <v>47</v>
@@ -68030,35 +68305,35 @@
       <c r="N92" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O92" s="30"/>
+      <c r="O92" s="29"/>
     </row>
     <row r="93">
       <c r="A93" s="15" t="s">
-        <v>1368</v>
+        <v>1392</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>1369</v>
+        <v>1393</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>1370</v>
+        <v>1394</v>
       </c>
       <c r="D93" s="27">
         <v>45604.0</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>1314</v>
+        <v>1338</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>1200</v>
+        <v>1224</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>1371</v>
+        <v>1395</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>1317</v>
+        <v>1341</v>
       </c>
       <c r="J93" s="15" t="s">
         <v>44</v>
@@ -68067,7 +68342,7 @@
         <v>997</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>1372</v>
+        <v>1396</v>
       </c>
       <c r="M93" s="15" t="s">
         <v>47</v>
@@ -68075,17 +68350,17 @@
       <c r="N93" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O93" s="30"/>
+      <c r="O93" s="29"/>
     </row>
     <row r="94">
       <c r="A94" s="15" t="s">
-        <v>1373</v>
+        <v>1397</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>1374</v>
+        <v>1398</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="D94" s="27">
         <v>45604.0</v>
@@ -68094,16 +68369,16 @@
         <v>992</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>1376</v>
+        <v>1400</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>1377</v>
+        <v>1401</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>1378</v>
+        <v>1402</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>44</v>
@@ -68112,7 +68387,7 @@
         <v>997</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>1379</v>
+        <v>1403</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>47</v>
@@ -68120,7 +68395,7 @@
       <c r="N94" s="27">
         <v>45604.0</v>
       </c>
-      <c r="O94" s="30"/>
+      <c r="O94" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
